--- a/doc/Bitácoras/Timesheet.xlsx
+++ b/doc/Bitácoras/Timesheet.xlsx
@@ -31,7 +31,7 @@
     <t>Isaias</t>
   </si>
   <si>
-    <t>Creación de repositorio y template para documentos</t>
+    <t>Creación de repositorio</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>42409</v>
